--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="3528" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>Typ</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Ilość</t>
   </si>
   <si>
-    <t>Cena 1 szt.</t>
-  </si>
-  <si>
-    <t>Cena całkowita</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>SOT-23</t>
   </si>
   <si>
-    <t>BSS138</t>
-  </si>
-  <si>
-    <t>FDV304P</t>
-  </si>
-  <si>
     <t>1U</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>8X3,5mm</t>
   </si>
   <si>
-    <t>2917in</t>
-  </si>
-  <si>
     <t>Kondensator</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>Producent</t>
   </si>
   <si>
-    <t>Schurter</t>
-  </si>
-  <si>
     <t>Molex</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>502584-0470</t>
   </si>
   <si>
-    <t>171813-0004</t>
-  </si>
-  <si>
     <t>Connfly</t>
   </si>
   <si>
@@ -183,21 +162,12 @@
     <t>Attend</t>
   </si>
   <si>
-    <t>uSD-112C-TXAR-R01</t>
-  </si>
-  <si>
     <t>Kwarc</t>
   </si>
   <si>
     <t>Abracon</t>
   </si>
   <si>
-    <t>ABS07 32,768 kHz</t>
-  </si>
-  <si>
-    <t>8 MHz</t>
-  </si>
-  <si>
     <t>MCP1755T-3302E/DC</t>
   </si>
   <si>
@@ -213,15 +183,9 @@
     <t>M590E</t>
   </si>
   <si>
-    <t>S25FL1275ABMGI101</t>
-  </si>
-  <si>
     <t>ESP-07</t>
   </si>
   <si>
-    <t>C707-10M006-049-2</t>
-  </si>
-  <si>
     <t>Amphenol</t>
   </si>
   <si>
@@ -316,17 +280,78 @@
   </si>
   <si>
     <t>MIC29302WU</t>
+  </si>
+  <si>
+    <t>AT45DB161E-SSHD-T</t>
+  </si>
+  <si>
+    <t>C707-10M006-049</t>
+  </si>
+  <si>
+    <t>112C-TBAR-R02</t>
+  </si>
+  <si>
+    <t>MX-171813-0004</t>
+  </si>
+  <si>
+    <t>BSS138P.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDV304P </t>
+  </si>
+  <si>
+    <t>A755KS108M0JAAE013</t>
+  </si>
+  <si>
+    <t>T520B476M010ATE035</t>
+  </si>
+  <si>
+    <t>B, 1411</t>
+  </si>
+  <si>
+    <t>LTST-C193KRKT-5A</t>
+  </si>
+  <si>
+    <t>LTST-C193KGKT-5A</t>
+  </si>
+  <si>
+    <t>SCHURTER 3412.0115.11</t>
+  </si>
+  <si>
+    <t>3413.0326.11</t>
+  </si>
+  <si>
+    <t>Schurter 3413.0010.11</t>
+  </si>
+  <si>
+    <t>SCHURTER 3404.0003.11</t>
+  </si>
+  <si>
+    <t>Cena 1 szt. (netto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS07-32.768KHZ </t>
+  </si>
+  <si>
+    <t>HC49USM-FF5F8.00</t>
+  </si>
+  <si>
+    <t>ILSI</t>
+  </si>
+  <si>
+    <t>Cena całkowita (N szt.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _z_ł_-;\-* #,##0.000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _z_ł_-;\-* #,##0.000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _z_ł_-;\-* #,##0.000\ _z_ł_-;_-* &quot;-&quot;???\ _z_ł_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +370,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,16 +405,24 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -664,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,15 +716,16 @@
     <col min="1" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -694,11 +736,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+      <c r="F1" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -706,42 +748,63 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>21</v>
       </c>
+      <c r="F2" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <f>F2*G$58</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
+      <c r="F3" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G56" si="0">F3*G$58</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -751,10 +814,17 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -762,14 +832,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
+      <c r="F6" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -779,11 +856,18 @@
         <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
+      <c r="F7" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -793,10 +877,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -807,10 +898,17 @@
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -818,14 +916,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -835,390 +940,651 @@
         <v>390</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
+      <c r="F13" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1499999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
+      <c r="F14" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="3">
+        <v>3.93</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>19.650000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>34.049999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="3">
+        <v>0.437</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="3">
+        <v>0.437</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="F33" s="3">
+        <v>2.93</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>10.649999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="3">
+        <v>5.22</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>26.099999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -1226,16 +1592,20 @@
       <c r="F46" s="3">
         <v>4.2990000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>21.495000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>61</v>
-      </c>
-      <c r="D47" t="s">
-        <v>73</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1243,16 +1613,20 @@
       <c r="F47" s="3">
         <v>2.3477000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>11.7385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1260,16 +1634,20 @@
       <c r="F48" s="3">
         <v>22.84</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="7">
+        <f t="shared" si="0"/>
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1277,16 +1655,20 @@
       <c r="F49" s="3">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1294,16 +1676,20 @@
       <c r="F50" s="3">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="7">
+        <f t="shared" si="0"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1311,16 +1697,20 @@
       <c r="F51" s="3">
         <v>40.22</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>201.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1328,13 +1718,17 @@
       <c r="F52" s="3">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="7">
+        <f t="shared" si="0"/>
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1342,13 +1736,17 @@
       <c r="F53" s="3">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="7">
+        <f t="shared" si="0"/>
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1356,33 +1754,66 @@
       <c r="F54" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E56">
         <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="3">
+        <f>SUM(F2:F56)</f>
+        <v>216.5027</v>
+      </c>
+      <c r="G59" s="8">
+        <f>F59*G58</f>
+        <v>1082.5135</v>
       </c>
     </row>
   </sheetData>
@@ -1396,8 +1827,32 @@
     <hyperlink ref="C52" r:id="rId7" display="http://www.tme.eu/pl/details/mic29302wu/stabilizatory-napiecia-regulowane-ldo/microchip-micrel/"/>
     <hyperlink ref="C53" r:id="rId8"/>
     <hyperlink ref="C54" r:id="rId9"/>
+    <hyperlink ref="C56" r:id="rId10"/>
+    <hyperlink ref="C55" r:id="rId11"/>
+    <hyperlink ref="C41" r:id="rId12" display="http://www.tme.eu/pl/details/c707-10m006-049/zlacza-do-kart/amphenol/c707-10m006-049-2a/"/>
+    <hyperlink ref="C40" r:id="rId13" display="http://www.tme.eu/pl/details/mcc-sdmicro_1/zlacza-do-kart/attend/112c-tbar-r02/"/>
+    <hyperlink ref="C39" r:id="rId14" display="http://www.tme.eu/pl/details/ds1092-13-n8s/baterie-pojemniki-i-uchwyty/connfly/"/>
+    <hyperlink ref="C38" r:id="rId15" display="http://www.tme.eu/pl/details/mx-171813-0004/zlacza-sygnalowe-raster-396mm/molex/1718130004/"/>
+    <hyperlink ref="C37" r:id="rId16" display="http://pl.mouser.com/ProductDetail/Molex/502584-0270/?qs=sGAEpiMZZMs%252bGHln7q6pm9W403cBYcgwSf5VzE%252bg3AU%3d"/>
+    <hyperlink ref="C36" r:id="rId17" display="http://pl.mouser.com/ProductDetail/Molex/502584-0470/?qs=%2fha2pyFaduhESHznh6Al69x8sLK%2foVhqqXqBv7jsfqp9TKDTDQHQ%2fg%3d%3d"/>
+    <hyperlink ref="C35" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId19"/>
+    <hyperlink ref="C14" r:id="rId20" display="http://www.tme.eu/pl/details/bss138p.215/tranzystory-z-kanalem-n-smd/nexperia/"/>
+    <hyperlink ref="C15" r:id="rId21" display="http://www.tme.eu/pl/details/fdv304p/tranzystory-z-kanalem-p-smd/on-semiconductor-fairchild/"/>
+    <hyperlink ref="B22" r:id="rId22" display="http://www.tme.eu/pl/details/a755ks108m0jaae013/kondensatory-polimerowe/kemet/"/>
+    <hyperlink ref="B21" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24" display="http://www.tme.eu/pl/details/ltst-c193krkt-5a/diody-led-smd-kolorowe/liteon/"/>
+    <hyperlink ref="B28" r:id="rId25" display="http://www.tme.eu/pl/details/ltst-c193kgkt-5a/diody-led-smd-kolorowe/liteon/"/>
+    <hyperlink ref="C26" r:id="rId26" display="http://www.tme.eu/pl/details/mbrb2535ctlt4g/diody-schottky-smd/on-semiconductor/"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28" display="http://www.tme.eu/pl/details/3413.0326.11/bezpieczniki-smd-1206-zwloczne/schurter/"/>
+    <hyperlink ref="B32" r:id="rId29" display="http://pl.mouser.com/ProductDetail/Schurter/3413001011/?qs=%2fha2pyFadugm5h3pErHO3vtjRxA52CmG3aaXoqToYJi%252bBsDAWAcOSg%3d%3d"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B43" r:id="rId31" display="http://www.tme.eu/pl/details/abs07-32.768khz/rezonatory-kwarcowe-smd/abracon/abs07-32768khz-t/"/>
+    <hyperlink ref="C43" r:id="rId32" display="http://www.tme.eu/pl/details/abs07-32.768khz/rezonatory-kwarcowe-smd/abracon/abs07-32768khz-t/"/>
+    <hyperlink ref="C44" r:id="rId33" display="http://www.tme.eu/pl/details/hc49usm-ff5f8.00/rezonatory-kwarcowe-smd/ilsi/hc49usm-ff5f18-80000/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="2352" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,7 +1458,7 @@
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:G65" si="1">F34*G$58</f>
+        <f t="shared" ref="G34:G56" si="1">F34*G$58</f>
         <v>0</v>
       </c>
       <c r="H34" s="7"/>

--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="8232" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="163">
   <si>
     <t>Typ</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>kupione w tme</t>
+  </si>
+  <si>
+    <t>TME</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,12 +616,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -636,7 +633,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -678,9 +675,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -694,10 +688,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -1052,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,34 +1640,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="31">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
         <v>3.93</v>
       </c>
-      <c r="G22" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="31">
+      <c r="G22" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
         <f t="shared" ref="I22:I23" si="2">E22*G$60</f>
         <v>0</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="28" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1959,83 +1949,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="10">
         <v>2</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="12">
         <v>1.88</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="13">
         <f t="shared" si="1"/>
         <v>3.76</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="10">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="N33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2.93</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="1"/>
+        <v>2.93</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="25" t="s">
+      <c r="N34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O33" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="25">
-        <v>1</v>
-      </c>
-      <c r="F34" s="26">
-        <v>2.93</v>
-      </c>
-      <c r="G34" s="27">
-        <f t="shared" si="1"/>
-        <v>2.93</v>
-      </c>
-      <c r="I34" s="25">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2686,31 +2676,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
         <v>120</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="26">
         <v>1</v>
       </c>
       <c r="F57" s="12">
         <v>20.58</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="27">
         <f t="shared" si="1"/>
         <v>20.58</v>
       </c>
-      <c r="I57" s="29">
-        <v>5</v>
-      </c>
-      <c r="J57" s="29">
+      <c r="I57" s="26">
+        <v>5</v>
+      </c>
+      <c r="J57" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59">
+        <f>SUM(E2:E57)</f>
+        <v>178</v>
+      </c>
       <c r="F59" s="4" t="s">
         <v>112</v>
       </c>
@@ -2829,7 +2826,7 @@
       <c r="B2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>105</v>
       </c>
       <c r="D2">
@@ -2877,10 +2874,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="25"/>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2894,67 +2891,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="35">
         <v>6</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="35">
         <v>10.23</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
         <v>61.38</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="35">
         <f t="shared" si="2"/>
         <v>306.90000000000003</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="35">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>6</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="35">
         <v>10.84</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
         <v>65.039999999999992</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="35">
         <f t="shared" si="2"/>
         <v>325.19999999999993</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="35">
         <v>18</v>
       </c>
     </row>
@@ -2987,7 +2984,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>144</v>
       </c>
       <c r="E10">
@@ -3163,32 +3160,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="28" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3221,40 +3218,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="31">
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="28"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="28"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
@@ -3265,7 +3262,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="28"/>
+      <c r="C25" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
